--- a/APITestingWithTestNG/target/test-classes/APITesting -All in One.xlsx
+++ b/APITestingWithTestNG/target/test-classes/APITesting -All in One.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Pradip Talukder - Personal View" guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Sharmila Manoharaj - Personal View" guid="{241E580D-BA2E-4C84-AC4C-4F788AF431AE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="865" activeSheetId="1"/>
+    <customWorkbookView name="Sudheer Kumar Balivada - Personal View" guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="855" activeSheetId="3"/>
     <customWorkbookView name="Swetha Ryali - Personal View" guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="2"/>
-    <customWorkbookView name="Sudheer Kumar Balivada - Personal View" guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="855" activeSheetId="3"/>
-    <customWorkbookView name="Sharmila Manoharaj - Personal View" guid="{241E580D-BA2E-4C84-AC4C-4F788AF431AE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="865" activeSheetId="1"/>
-    <customWorkbookView name="Pradip Talukder - Personal View" guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{722319C3-BEF7-440E-A658-128BD8CC1FC6}" diskRevisions="1" revisionId="2611" version="54">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D5A5BA29-54C5-4436-9D7F-C877D340C592}" diskRevisions="1" revisionId="2611" version="55">
   <header guid="{E044F7E3-8D6C-463C-9B4A-2F897DB16C85}" dateTime="2016-11-22T16:14:38" maxSheetId="7" userName="Pradip Talukder" r:id="rId200" minRId="2527" maxRId="2528">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -4354,6 +4354,16 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{D5A5BA29-54C5-4436-9D7F-C877D340C592}" dateTime="2017-01-17T14:23:59" maxSheetId="7" userName="Sudheer Kumar Balivada" r:id="rId239">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+      <sheetId val="4"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -4542,6 +4552,20 @@
     </dxf>
   </rfmt>
   <rfmt sheetId="1" sqref="B131">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="B89">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5973,7 +5997,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{E044F7E3-8D6C-463C-9B4A-2F897DB16C85}" name="Pradip Talukder" id="-1256887037" dateTime="2016-11-23T12:13:02"/>
   <userInfo guid="{E044F7E3-8D6C-463C-9B4A-2F897DB16C85}" name="Sonakshi Das" id="-292052512" dateTime="2016-11-27T21:48:59"/>
@@ -6270,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8597,7 +8621,7 @@
       <c r="A89" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="36" t="s">
         <v>79</v>
       </c>
     </row>
@@ -11838,12 +11862,8 @@
     <row r="315" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
-      <selection activeCell="C1" sqref="C1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
-      <selection activeCell="E11" sqref="E11"/>
+    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}">
+      <selection activeCell="C168" sqref="C168"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -11852,10 +11872,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}">
-      <selection activeCell="C168" sqref="C168"/>
+    <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
+      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
+      <selection activeCell="C1" sqref="C1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11884,22 +11908,22 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
-      <selection activeCell="A4" sqref="A4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
-      <selection activeCell="I14" sqref="I14"/>
+    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{241E580D-BA2E-4C84-AC4C-4F788AF431AE}">
       <selection activeCell="A22" sqref="A22:XFD22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
+      <selection activeCell="I14" sqref="I14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
+      <selection activeCell="A4" sqref="A4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11920,16 +11944,16 @@
     <row r="2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
-      <selection activeCell="I9" sqref="I9"/>
+    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
+      <selection sqref="A1:XFD1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
       <selection activeCell="D19" sqref="D19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
-      <selection sqref="A1:XFD1"/>
+    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
+      <selection activeCell="I9" sqref="I9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -13814,16 +13838,16 @@
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
-      <selection activeCell="E11" sqref="E11"/>
+    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
+      <selection activeCell="E17" sqref="E17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
       <selection activeCell="D14" sqref="D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
-      <selection activeCell="E17" sqref="E17"/>
+    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
+      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -14152,16 +14176,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
-      <selection activeCell="B17" sqref="B17"/>
+    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
+      <selection activeCell="U8" sqref="U8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
-      <selection activeCell="U8" sqref="U8"/>
+    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}">
+      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -14173,8 +14197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14968,19 +14992,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}" topLeftCell="A48">
-      <selection activeCell="D69" sqref="D69"/>
+    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
+      <selection activeCell="AW42" sqref="AW42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{241E580D-BA2E-4C84-AC4C-4F788AF431AE}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{9E7F9757-F97A-45CB-8218-EE8DB40E0F1A}">
       <selection activeCell="D22" sqref="D22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{241E580D-BA2E-4C84-AC4C-4F788AF431AE}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{9C807188-FB18-4908-929B-2DAE78BD3065}" state="hidden">
-      <selection activeCell="AW42" sqref="AW42"/>
+    <customSheetView guid="{2E92532B-9B51-4F4B-8BA7-BD7B86FBFE2F}" topLeftCell="A48">
+      <selection activeCell="D69" sqref="D69"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
